--- a/9/gap/9_gap_SS.xlsx
+++ b/9/gap/9_gap_SS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management-3dPrinter/9/gap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2962702-5A78-7144-B0A6-BC89491F968D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB916D9B-AF15-314A-8E28-9B7986263EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -624,7 +624,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>9_g_g2.0</a:t>
+              <a:t>10%</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -650,10 +650,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_g_g2.0'!$C$2:$C$105</c:f>
+              <c:f>'9_g_g1.5'!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
@@ -677,615 +677,39 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.2499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.7499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.2499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5000000000000009E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.749999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.4999999999999989E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.7499999999999991E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.2499999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9.4999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.7500000000000017E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.025E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.0749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.175E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.225E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.2500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.4749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.525E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.55E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.575E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.6250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.6500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.6750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.7000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.7250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.7500000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.7749999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.8249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.8499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.8749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.925E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.95E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.975E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.0250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.0750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2.1250000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.1499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.1749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.1999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2.2249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2.2499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.4750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2.4875000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2.4937500000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2.4962499999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2.498125E-2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_g_g2.0'!$D$2:$D$105</c:f>
+              <c:f>'9_g_g1.5'!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.67155142857142858</c:v>
+                  <c:v>0.67566142857142863</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3431014285714289</c:v>
+                  <c:v>1.351321428571429</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0146571428571431</c:v>
+                  <c:v>2.0269857142857139</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6861999999999999</c:v>
+                  <c:v>2.7026428571428571</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3577571428571429</c:v>
+                  <c:v>3.3782999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0293000000000001</c:v>
+                  <c:v>4.0539714285714288</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.7008571428571431</c:v>
+                  <c:v>4.729628571428572</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3723999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.0439571428571428</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.7155142857142858</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.3870571428571434</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.0586142857142846</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.7301571428571432</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.4017142857142861</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10.073257142857139</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10.744814285714281</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11.416371428571431</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12.087914285714289</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12.75947142857143</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>13.43084285714286</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>14.10224285714286</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>14.77314285714286</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>15.444000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16.113714285714291</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>16.78171428571429</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>17.449857142857141</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>18.115285714285719</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>18.777428571428569</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>19.431000000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>20.06785714285714</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>20.68842857142857</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>21.27185714285714</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>21.874142857142861</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>22.475999999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>23.105714285714289</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>23.742000000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>24.389571428571429</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>25.03257142857143</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>25.668285714285709</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>26.303000000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>26.94014285714286</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>27.57571428571428</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>28.205857142857141</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>28.83014285714286</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>29.448285714285721</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>30.064714285714292</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>30.673857142857141</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>31.267428571428571</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>31.859285714285711</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>32.407142857142858</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>32.716428571428573</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>32.550285714285707</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>31.862285714285711</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>30.887142857142859</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>29.733142857142859</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>26.894285714285711</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>21.45928571428572</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>18.18214285714286</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>12.420971428571431</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>8.2660285714285706</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6.6812714285714287</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>5.4315285714285713</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>4.385585714285714</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3.3144142857142849</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2.1219714285714288</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.433371428571429</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.235791428571428</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.081638571428571</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.98105714285714296</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.91402428571428562</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.86057142857142865</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.8165271428571429</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.78304428571428575</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.75030571428571424</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.71694428571428581</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.69438571428571427</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.65338571428571435</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.62002571428571429</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.60047428571428574</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.59090571428571426</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.57796999999999998</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.57135857142857149</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.56809857142857145</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.56273571428571434</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.56080285714285716</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.55530285714285721</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.55063571428571423</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.54415714285714289</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.5430814285714286</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.53596571428571427</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.52503142857142859</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.51227571428571428</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.50094857142857141</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.49723857142857142</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.4938042857142857</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.48852000000000001</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.48960428571428571</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.48958000000000002</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.49021142857142852</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.48920857142857138</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.48734142857142859</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.48410571428571431</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.47604000000000002</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.46658142857142848</c:v>
+                  <c:v>5.4052857142857142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1293,7 +717,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-641F-D544-90FF-DA0013B575D1}"/>
+              <c16:uniqueId val="{00000000-8A8A-A84D-B60B-237F80A021D3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1415,7 +839,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>10%</a:t>
+              <a:t>9_g_g2.0</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1441,10 +865,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_g_g2.0'!$C$2:$C$10</c:f>
+              <c:f>'9_g_g2.0'!$C$2:$C$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
@@ -1471,16 +895,301 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2.2499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.749999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.4999999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.7499999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.2499999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.4999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.7500000000000017E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.025E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.175E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.225E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.525E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.55E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.575E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7749999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.8749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.925E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.975E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1250000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.4750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4875000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.4937500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.4962499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.498125E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_g_g2.0'!$D$2:$D$10</c:f>
+              <c:f>'9_g_g2.0'!$D$2:$D$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0.67155142857142858</c:v>
                 </c:pt>
@@ -1507,6 +1216,291 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>6.0439571428571428</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7155142857142858</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.3870571428571434</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0586142857142846</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.7301571428571432</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.4017142857142861</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.073257142857139</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.744814285714281</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.416371428571431</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.087914285714289</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.75947142857143</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.43084285714286</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.10224285714286</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.77314285714286</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.444000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.113714285714291</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.78171428571429</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.449857142857141</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18.115285714285719</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18.777428571428569</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.431000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20.06785714285714</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20.68842857142857</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21.27185714285714</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21.874142857142861</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22.475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23.105714285714289</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23.742000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24.389571428571429</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25.03257142857143</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25.668285714285709</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26.303000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>26.94014285714286</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27.57571428571428</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>28.205857142857141</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>28.83014285714286</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>29.448285714285721</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>30.064714285714292</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>30.673857142857141</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>31.267428571428571</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>31.859285714285711</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>32.407142857142858</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>32.716428571428573</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>32.550285714285707</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>31.862285714285711</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>30.887142857142859</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>29.733142857142859</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>26.894285714285711</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>21.45928571428572</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>18.18214285714286</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>12.420971428571431</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.2660285714285706</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.6812714285714287</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.4315285714285713</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.385585714285714</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.3144142857142849</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.1219714285714288</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.433371428571429</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.235791428571428</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.081638571428571</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.98105714285714296</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.91402428571428562</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.86057142857142865</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.8165271428571429</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.78304428571428575</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.75030571428571424</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.71694428571428581</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.69438571428571427</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.65338571428571435</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.62002571428571429</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.60047428571428574</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.59090571428571426</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.57796999999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.57135857142857149</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.56809857142857145</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.56273571428571434</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.56080285714285716</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.55530285714285721</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.55063571428571423</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.54415714285714289</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.5430814285714286</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.53596571428571427</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.52503142857142859</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.51227571428571428</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.50094857142857141</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.49723857142857142</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.4938042857142857</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.48852000000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.48960428571428571</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.48958000000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.49021142857142852</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.48920857142857138</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.48734142857142859</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.48410571428571431</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.47604000000000002</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.46658142857142848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1514,7 +1508,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-20BF-4842-BB73-0FC07A107D3F}"/>
+              <c16:uniqueId val="{00000000-641F-D544-90FF-DA0013B575D1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1636,7 +1630,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>9_g_g2.5</a:t>
+              <a:t>10%</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1662,10 +1656,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_g_g2.5'!$C$2:$C$105</c:f>
+              <c:f>'9_g_g2.0'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
@@ -1692,612 +1686,42 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2.2499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.7499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.2499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5000000000000009E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.749999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.4999999999999989E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.7499999999999991E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.2499999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9.4999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.7500000000000017E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.025E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.0749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.175E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.225E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.2500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.4749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.525E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.55E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.575E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.6250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.6500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.6750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.7000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.7250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.7500000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.7749999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.8249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.8499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.8749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.925E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.95E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.975E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.0250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.0750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2.1250000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.1499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.1749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.1999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2.2249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2.2499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.4750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2.4875000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2.4937500000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2.4962499999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2.498125E-2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_g_g2.5'!$D$2:$D$105</c:f>
+              <c:f>'9_g_g2.0'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.66794571428571425</c:v>
+                  <c:v>0.67155142857142858</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.335891428571429</c:v>
+                  <c:v>1.3431014285714289</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0038428571428568</c:v>
+                  <c:v>2.0146571428571431</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.671785714285714</c:v>
+                  <c:v>2.6861999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.339728571428572</c:v>
+                  <c:v>3.3577571428571429</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0076714285714283</c:v>
+                  <c:v>4.0293000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6756142857142864</c:v>
+                  <c:v>4.7008571428571431</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3435714285714289</c:v>
+                  <c:v>5.3723999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0115142857142851</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.6794571428571432</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.3473999999999986</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.0153571428571428</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.6833000000000009</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.3512428571428572</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10.01918571428571</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10.68698571428571</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11.35474285714286</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12.02265714285714</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12.69045714285714</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>13.358228571428571</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>14.02571428571428</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>14.693571428571429</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>15.361142857142861</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16.02842857142857</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>16.693857142857141</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>17.358142857142859</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>18.019285714285711</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>18.677857142857139</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>19.33042857142857</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>19.971</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>20.598571428571429</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>21.181142857142859</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>21.713285714285711</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>22.33342857142857</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>22.960999999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>23.59057142857143</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>24.227</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>24.85942857142857</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>25.495571428571431</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>26.121857142857142</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>26.747714285714281</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>27.36485714285714</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>27.98414285714286</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>28.602428571428572</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>29.220714285714291</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>29.83728571428572</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>30.456</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>31.060142857142861</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>31.609000000000002</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>32.040428571428571</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>32.195142857142862</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>31.853428571428569</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>31.17614285714286</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>29.949571428571421</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>27.229285714285709</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>22.674857142857139</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>18.574857142857141</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>13.36025714285714</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>8.9846142857142866</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>6.5695571428571444</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>5.5686142857142853</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>4.9438428571428572</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>4.3516428571428571</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3.7405428571428581</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>3.1231714285714292</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2.146871428571429</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.721514285714286</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.262027142857143</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.0864257142857141</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.94621285714285708</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.85593285714285716</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.7806142857142857</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.72459428571428575</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.68102714285714283</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.65921285714285716</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.62724857142857149</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.60737714285714284</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.58624571428571426</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.57359285714285713</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.55396571428571428</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.52566714285714289</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.51098285714285707</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.50318571428571424</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.49837428571428583</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.48045142857142847</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.47570714285714288</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.46292000000000011</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.45109428571428573</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.44384428571428569</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.43710142857142859</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.43627571428571432</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.43394428571428573</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.42565999999999998</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.42332857142857139</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.42122999999999999</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.41994857142857139</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.42154285714285711</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.42498999999999998</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.42509571428571419</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.42560571428571431</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.42551285714285719</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.42381142857142862</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.41820285714285721</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.41599428571428571</c:v>
+                  <c:v>6.0439571428571428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2305,7 +1729,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EE7B-5A40-9525-41DDE54CE139}"/>
+              <c16:uniqueId val="{00000000-20BF-4842-BB73-0FC07A107D3F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2427,7 +1851,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>10%</a:t>
+              <a:t>9_g_g2.5</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2453,10 +1877,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_g_g2.5'!$C$2:$C$10</c:f>
+              <c:f>'9_g_g2.5'!$C$2:$C$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
@@ -2483,16 +1907,301 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2.2499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.749999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.4999999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.7499999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.2499999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.4999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.7500000000000017E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.025E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.175E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.225E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.525E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.55E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.575E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7749999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.8749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.925E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.975E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1250000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.4750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4875000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.4937500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.4962499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.498125E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_g_g2.5'!$D$2:$D$10</c:f>
+              <c:f>'9_g_g2.5'!$D$2:$D$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0.66794571428571425</c:v>
                 </c:pt>
@@ -2519,6 +2228,291 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>6.0115142857142851</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6794571428571432</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.3473999999999986</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0153571428571428</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.6833000000000009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.3512428571428572</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.01918571428571</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.68698571428571</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.35474285714286</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.02265714285714</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.69045714285714</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.358228571428571</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.02571428571428</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.693571428571429</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.361142857142861</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.02842857142857</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.693857142857141</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.358142857142859</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18.019285714285711</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18.677857142857139</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.33042857142857</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.971</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20.598571428571429</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21.181142857142859</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21.713285714285711</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22.33342857142857</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>22.960999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23.59057142857143</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24.227</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24.85942857142857</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25.495571428571431</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26.121857142857142</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>26.747714285714281</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27.36485714285714</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>27.98414285714286</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>28.602428571428572</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>29.220714285714291</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>29.83728571428572</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>30.456</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>31.060142857142861</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>31.609000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>32.040428571428571</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>32.195142857142862</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>31.853428571428569</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>31.17614285714286</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>29.949571428571421</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>27.229285714285709</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>22.674857142857139</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>18.574857142857141</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>13.36025714285714</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.9846142857142866</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.5695571428571444</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.5686142857142853</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.9438428571428572</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.3516428571428571</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.7405428571428581</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.1231714285714292</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.146871428571429</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.721514285714286</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.262027142857143</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.0864257142857141</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.94621285714285708</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.85593285714285716</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.7806142857142857</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72459428571428575</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.68102714285714283</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.65921285714285716</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.62724857142857149</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.60737714285714284</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.58624571428571426</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.57359285714285713</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.55396571428571428</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.52566714285714289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.51098285714285707</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.50318571428571424</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.49837428571428583</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.48045142857142847</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.47570714285714288</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.46292000000000011</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.45109428571428573</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.44384428571428569</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.43710142857142859</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.43627571428571432</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.43394428571428573</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.42565999999999998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.42332857142857139</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.42122999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.41994857142857139</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.42154285714285711</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.42498999999999998</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.42509571428571419</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.42560571428571431</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.42551285714285719</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.42381142857142862</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.41820285714285721</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.41599428571428571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2526,7 +2520,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B559-2648-8B35-D792391053E3}"/>
+              <c16:uniqueId val="{00000000-EE7B-5A40-9525-41DDE54CE139}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2648,7 +2642,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>9_g_g3.0</a:t>
+              <a:t>10%</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2674,10 +2668,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_g_g3.0'!$C$2:$C$105</c:f>
+              <c:f>'9_g_g2.5'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
@@ -2704,612 +2698,42 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2.2499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.7499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.2499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5000000000000009E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.749999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.4999999999999989E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.7499999999999991E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.2499999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9.4999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.7500000000000017E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.025E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.0749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.175E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.225E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.2500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.4749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.525E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.55E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.575E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.6250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.6500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.6750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.7000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.7250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.7500000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.7749999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.8249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.8499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.8749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.925E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.95E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.975E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.0250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.0750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2.1250000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.1499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.1749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.1999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2.2249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2.2499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.4750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2.4875000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2.4937500000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2.4962499999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2.498125E-2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_g_g3.0'!$D$2:$D$105</c:f>
+              <c:f>'9_g_g2.5'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.66464285714285709</c:v>
+                  <c:v>0.66794571428571425</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3292842857142859</c:v>
+                  <c:v>1.335891428571429</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9939285714285711</c:v>
+                  <c:v>2.0038428571428568</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6585714285714279</c:v>
+                  <c:v>2.671785714285714</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3232142857142861</c:v>
+                  <c:v>3.339728571428572</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.987857142857143</c:v>
+                  <c:v>4.0076714285714283</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6524999999999999</c:v>
+                  <c:v>4.6756142857142864</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3171428571428567</c:v>
+                  <c:v>5.3435714285714289</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.9817857142857136</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.6464285714285714</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.3110714285714282</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.9757142857142851</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.6403571428571428</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.3049999999999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.9696285714285722</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10.634271428571431</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11.298914285714289</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.963557142857139</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12.6282</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>13.29251428571428</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>13.95692857142857</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>14.621</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>15.284714285714291</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>15.947142857142859</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>16.60942857142857</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>17.270428571428571</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>17.928428571428569</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>18.58071428571429</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>19.22128571428571</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>19.843857142857139</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>20.437428571428569</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>20.981000000000002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>21.579428571428569</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>22.19885714285714</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>22.822428571428571</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>23.444857142857149</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>24.07057142857143</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>24.701142857142859</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>25.330857142857141</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>25.952857142857141</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>26.57114285714286</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>27.196999999999999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>27.818428571428569</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>28.447142857142861</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>29.08071428571429</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>29.708571428571432</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>30.332000000000001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>30.954142857142859</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>31.557285714285719</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>32.084285714285713</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>32.493285714285719</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>32.595142857142847</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>32.046428571428571</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>30.958285714285712</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>28.932285714285719</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>23.326714285714289</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>18.97428571428571</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>13.747957142857141</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>7.6966285714285716</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>6.0256999999999996</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>5.2132428571428573</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>4.7692571428571426</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>4.4090857142857143</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3.9774428571428571</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>3.4982857142857142</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3.030014285714286</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2.5395285714285709</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2.0211000000000001</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.4024000000000001</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.1107771428571429</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.94253285714285717</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.85286999999999991</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.77528142857142857</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.71992714285714288</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.6767671428571429</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.64187571428571433</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.61464142857142856</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.57763571428571425</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.55213428571428569</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.53400142857142852</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.52206571428571436</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.5153671428571428</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.50367857142857142</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.49537142857142857</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.47710571428571419</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.46736428571428568</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.46072999999999997</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.45449857142857147</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.45369142857142858</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.45163142857142857</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.45125999999999999</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.45227285714285709</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.45232428571428568</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.45517714285714289</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.45734999999999998</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.45970000000000011</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.46024428571428572</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.46156285714285711</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.45968999999999999</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.46033857142857137</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.45870857142857141</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.45630142857142858</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.45042857142857151</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.44986428571428572</c:v>
+                  <c:v>6.0115142857142851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3317,7 +2741,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5EEE-1946-9796-EF2BFDB8B85D}"/>
+              <c16:uniqueId val="{00000000-B559-2648-8B35-D792391053E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3439,7 +2863,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>10%</a:t>
+              <a:t>9_g_g3.0</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3465,10 +2889,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_g_g3.0'!$C$2:$C$10</c:f>
+              <c:f>'9_g_g3.0'!$C$2:$C$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
@@ -3495,16 +2919,301 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2.2499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.749999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.4999999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.7499999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.2499999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.4999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.7500000000000017E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.025E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.175E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.225E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.525E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.55E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.575E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7749999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.8749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.925E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.975E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1250000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.4750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4875000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.4937500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.4962499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.498125E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_g_g3.0'!$D$2:$D$10</c:f>
+              <c:f>'9_g_g3.0'!$D$2:$D$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0.66464285714285709</c:v>
                 </c:pt>
@@ -3531,6 +3240,291 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5.9817857142857136</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6464285714285714</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.3110714285714282</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.9757142857142851</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.6403571428571428</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.3049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.9696285714285722</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.634271428571431</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.298914285714289</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.963557142857139</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.6282</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.29251428571428</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.95692857142857</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.621</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.284714285714291</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.947142857142859</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.60942857142857</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.270428571428571</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.928428571428569</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18.58071428571429</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.22128571428571</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.843857142857139</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20.437428571428569</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20.981000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21.579428571428569</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22.19885714285714</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>22.822428571428571</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23.444857142857149</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24.07057142857143</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24.701142857142859</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25.330857142857141</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25.952857142857141</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>26.57114285714286</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27.196999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>27.818428571428569</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>28.447142857142861</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>29.08071428571429</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>29.708571428571432</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>30.332000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>30.954142857142859</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>31.557285714285719</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>32.084285714285713</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>32.493285714285719</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>32.595142857142847</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>32.046428571428571</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>30.958285714285712</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>28.932285714285719</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>23.326714285714289</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>18.97428571428571</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>13.747957142857141</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.6966285714285716</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.0256999999999996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.2132428571428573</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.7692571428571426</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.4090857142857143</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.9774428571428571</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.4982857142857142</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.030014285714286</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.5395285714285709</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.0211000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.4024000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.1107771428571429</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.94253285714285717</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.85286999999999991</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.77528142857142857</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.71992714285714288</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.6767671428571429</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.64187571428571433</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.61464142857142856</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.57763571428571425</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.55213428571428569</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.53400142857142852</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.52206571428571436</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.5153671428571428</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.50367857142857142</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.49537142857142857</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.47710571428571419</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.46736428571428568</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.46072999999999997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.45449857142857147</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.45369142857142858</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.45163142857142857</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.45125999999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.45227285714285709</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.45232428571428568</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.45517714285714289</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.45734999999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.45970000000000011</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.46024428571428572</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.46156285714285711</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.45968999999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.46033857142857137</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.45870857142857141</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.45630142857142858</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.45042857142857151</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.44986428571428572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3538,7 +3532,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0FE8-CF43-BF73-97FCAF9A6B97}"/>
+              <c16:uniqueId val="{00000000-5EEE-1946-9796-EF2BFDB8B85D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3660,7 +3654,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>9_g_g4.0</a:t>
+              <a:t>10%</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3686,10 +3680,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_g_g4.0'!$C$2:$C$105</c:f>
+              <c:f>'9_g_g3.0'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
@@ -3716,612 +3710,42 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2.2499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.7499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.2499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5000000000000009E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.749999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.4999999999999989E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.7499999999999991E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.2499999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9.4999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.7500000000000017E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.025E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.0749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.175E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.225E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.2500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.4749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.525E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.55E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.575E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.6250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.6500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.6750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.7000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.7250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.7500000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.7749999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.8249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.8499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.8749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.925E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.95E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.975E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.0250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.0750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2.1250000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.1499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.1749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.1999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2.2249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2.2499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.4750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2.4875000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2.4937500000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2.4962499999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2.498125E-2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_g_g4.0'!$D$2:$D$105</c:f>
+              <c:f>'9_g_g3.0'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.65847857142857136</c:v>
+                  <c:v>0.66464285714285709</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.316955714285714</c:v>
+                  <c:v>1.3292842857142859</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.975428571428572</c:v>
+                  <c:v>1.9939285714285711</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.633914285714285</c:v>
+                  <c:v>2.6585714285714279</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.292385714285714</c:v>
+                  <c:v>3.3232142857142861</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9508714285714279</c:v>
+                  <c:v>3.987857142857143</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.609342857142857</c:v>
+                  <c:v>4.6524999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2678285714285709</c:v>
+                  <c:v>5.3171428571428567</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.9263000000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.5847857142857142</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.2432571428571428</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.9017285714285714</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.5602142857142862</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.2186857142857139</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.8771714285714296</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10.535642857142861</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11.194128571428569</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.852499999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12.510871428571431</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>13.16895714285714</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>13.826728571428569</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>14.48457142857143</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>15.14142857142857</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>15.798142857142849</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>16.453571428571429</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>17.10857142857143</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>17.758285714285709</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>18.402428571428569</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>19.030285714285711</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>19.645857142857139</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>20.22785714285714</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>20.796142857142861</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>21.38</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>21.993571428571428</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>22.621142857142861</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>23.244285714285709</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>23.863857142857139</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>24.484857142857141</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>25.100571428571431</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>25.71085714285714</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>26.313142857142861</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>26.923857142857141</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>27.53857142857143</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>28.154</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>28.768428571428569</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>29.366571428571429</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>29.946571428571431</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>30.435142857142861</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>30.78257142857143</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>30.770428571428571</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>30.24671428571429</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>28.758142857142861</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>25.72814285714286</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>20.582142857142859</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>13.659085714285711</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>9.5915142857142843</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>6.3852714285714276</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5.066757142857143</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>4.4341999999999997</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>4.0457857142857137</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3.7902428571428568</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>3.5705428571428568</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3.4542714285714289</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3.3633000000000002</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>3.301857142857143</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3.1910285714285722</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3.0255000000000001</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2.750342857142857</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2.4865142857142861</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2.2332142857142849</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.9989571428571431</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.786214285714286</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.551771428571429</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.163561428571428</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.95876000000000006</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.77661999999999998</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.71769142857142854</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.64901999999999993</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.61034999999999995</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.58763142857142858</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.57062142857142861</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.5476414285714285</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.53005714285714289</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.51917285714285721</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.50415857142857146</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.48979714285714288</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.47239428571428571</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.45855857142857143</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.44067428571428569</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.43339857142857152</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.42713428571428569</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.42282857142857139</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.4158271428571429</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.41067714285714291</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.40478857142857139</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.40436714285714292</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.40277857142857137</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.39969428571428572</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.39286142857142858</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.39219428571428572</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.39069142857142858</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.38867428571428569</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.38182857142857152</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.37684857142857142</c:v>
+                  <c:v>5.9817857142857136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4329,7 +3753,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6386-C549-9BF6-098E16844CD6}"/>
+              <c16:uniqueId val="{00000000-0FE8-CF43-BF73-97FCAF9A6B97}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4451,7 +3875,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>10%</a:t>
+              <a:rPr lang="en"/>
+              <a:t>9_g_g4.0</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4477,10 +3902,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_g_g4.0'!$C$2:$C$10</c:f>
+              <c:f>'9_g_g4.0'!$C$2:$C$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
@@ -4507,16 +3932,301 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2.2499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.749999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.4999999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.7499999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.2499999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.4999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.7500000000000017E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.025E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.175E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.225E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.525E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.55E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.575E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7749999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.8749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.925E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.975E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1250000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.4750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4875000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.4937500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.4962499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.498125E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_g_g4.0'!$D$2:$D$10</c:f>
+              <c:f>'9_g_g4.0'!$D$2:$D$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0.65847857142857136</c:v>
                 </c:pt>
@@ -4543,6 +4253,291 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5.9263000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5847857142857142</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.2432571428571428</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.9017285714285714</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.5602142857142862</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.2186857142857139</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.8771714285714296</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.535642857142861</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.194128571428569</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.852499999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.510871428571431</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.16895714285714</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.826728571428569</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.48457142857143</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.14142857142857</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.798142857142849</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.453571428571429</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.10857142857143</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.758285714285709</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18.402428571428569</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.030285714285711</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.645857142857139</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20.22785714285714</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20.796142857142861</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21.38</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>21.993571428571428</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>22.621142857142861</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23.244285714285709</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>23.863857142857139</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24.484857142857141</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25.100571428571431</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25.71085714285714</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>26.313142857142861</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>26.923857142857141</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>27.53857142857143</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>28.154</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>28.768428571428569</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>29.366571428571429</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>29.946571428571431</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>30.435142857142861</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>30.78257142857143</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>30.770428571428571</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>30.24671428571429</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>28.758142857142861</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25.72814285714286</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>20.582142857142859</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13.659085714285711</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.5915142857142843</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.3852714285714276</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.066757142857143</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.4341999999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.0457857142857137</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.7902428571428568</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.5705428571428568</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.4542714285714289</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.3633000000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.301857142857143</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.1910285714285722</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.0255000000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.750342857142857</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.4865142857142861</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.2332142857142849</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.9989571428571431</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.786214285714286</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.551771428571429</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.163561428571428</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.95876000000000006</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.77661999999999998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.71769142857142854</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.64901999999999993</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.61034999999999995</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.58763142857142858</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.57062142857142861</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.5476414285714285</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.53005714285714289</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.51917285714285721</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.50415857142857146</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.48979714285714288</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.47239428571428571</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.45855857142857143</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.44067428571428569</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.43339857142857152</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.42713428571428569</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.42282857142857139</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.4158271428571429</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.41067714285714291</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.40478857142857139</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.40436714285714292</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.40277857142857137</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.39969428571428572</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.39286142857142858</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.39219428571428572</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.39069142857142858</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.38867428571428569</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.38182857142857152</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.37684857142857142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4550,7 +4545,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-88B2-E54B-8AE9-974A5BFB5C58}"/>
+              <c16:uniqueId val="{00000000-6386-C549-9BF6-098E16844CD6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4583,6 +4578,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -4616,6 +4612,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -4672,8 +4669,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en"/>
-              <a:t>9_g_g6.0</a:t>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>10%</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4699,12 +4696,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_g_g6.0'!$C$2:$C$105</c:f>
+              <c:f>'9_g_g4.0'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.0000000000000001E-4</c:v>
@@ -4729,612 +4726,42 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2.2499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.7499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.2499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5000000000000009E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.749999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.4999999999999989E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.7499999999999991E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.2499999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9.4999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.7500000000000017E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.025E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.0749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.175E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.225E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.2500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.4749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.525E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.55E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.575E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.6250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.6500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.6750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.7000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.7250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.7500000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.7749999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.8249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.8499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.8749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.925E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.95E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.975E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.0250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.0750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2.1250000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.1499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.1749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.1999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2.2249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2.2499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.4750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2.4875000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2.4937500000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2.4962499999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2.498125E-2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_g_g6.0'!$D$2:$D$105</c:f>
+              <c:f>'9_g_g4.0'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.65847857142857136</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2930999999999999</c:v>
+                  <c:v>1.316955714285714</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.939642857142857</c:v>
+                  <c:v>1.975428571428572</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5861999999999998</c:v>
+                  <c:v>2.633914285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2327428571428571</c:v>
+                  <c:v>3.292385714285714</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8793000000000002</c:v>
+                  <c:v>3.9508714285714279</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.5258428571428579</c:v>
+                  <c:v>4.609342857142857</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.1723999999999997</c:v>
+                  <c:v>5.2678285714285709</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.8189428571428579</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.4654999999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.1120428571428578</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.7585999999999986</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.4051428571428577</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.0514428571428578</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.6979857142857142</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10.34451428571429</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10.99104285714286</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.637499999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12.28378571428571</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12.929842857142861</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>13.57615714285714</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>14.221857142857139</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>14.86728571428571</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>15.51242857142857</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>16.156285714285719</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>16.797999999999998</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>17.43542857142857</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>18.06342857142857</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>18.676714285714279</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>19.267142857142861</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>19.814</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>20.378857142857139</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>20.96685714285714</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>21.57442857142857</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>22.186142857142858</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>22.801857142857141</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>23.419142857142859</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>24.033857142857141</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>24.645571428571429</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>25.254000000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>25.85942857142857</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>26.450285714285709</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>27.03828571428572</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>27.63485714285714</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>28.217857142857142</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>28.809571428571431</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>29.387</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>29.93928571428571</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>30.37914285714286</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>30.398428571428571</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>29.65914285714285</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>26.93185714285714</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>19.216142857142859</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>10.915228571428569</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>8.4838142857142849</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>6.8576999999999986</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5.7949285714285708</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5.1316428571428574</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>4.5985714285714279</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>4.0535571428571444</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3.6872285714285709</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>3.3120571428571428</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3.0348857142857142</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2.822742857142857</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2.6153428571428572</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2.4486857142857139</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2.265828571428572</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2.1379428571428569</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2.0221142857142862</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.919742857142857</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.840657142857143</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.794</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.7615857142857141</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.734157142857143</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.7145857142857139</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.6914285714285719</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.681728571428571</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.675357142857143</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.646228571428572</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.600714285714286</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1.532285714285714</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1.4609000000000001</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.384465714285714</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1.289308571428571</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.2105600000000001</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.1369100000000001</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1.067124285714286</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.99632285714285707</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.93010285714285723</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.86631999999999998</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.79653714285714283</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.70084000000000002</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.62379285714285715</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.56203428571428571</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.51724285714285712</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.48724571428571428</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.44302000000000002</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.41864857142857143</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.38248857142857151</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.36909142857142863</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.35776714285714289</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.34638142857142862</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.32577857142857142</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.31765714285714292</c:v>
+                  <c:v>5.9263000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5342,7 +4769,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-48F9-7444-ABC8-DBDBDDA65EFC}"/>
+              <c16:uniqueId val="{00000000-88B2-E54B-8AE9-974A5BFB5C58}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5466,8 +4893,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>10%</a:t>
+              <a:rPr lang="en"/>
+              <a:t>9_g_g6.0</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5493,10 +4920,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_g_g6.0'!$C$2:$C$10</c:f>
+              <c:f>'9_g_g6.0'!$C$2:$C$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5523,16 +4950,301 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2.2499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.749999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.4999999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.7499999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.2499999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.4999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.7500000000000017E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.025E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.175E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.225E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.525E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.55E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.575E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7749999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.8749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.925E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.975E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1250000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.4750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4875000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.4937500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.4962499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.498125E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_g_g6.0'!$D$2:$D$10</c:f>
+              <c:f>'9_g_g6.0'!$D$2:$D$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5559,6 +5271,291 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5.8189428571428579</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4654999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.1120428571428578</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.7585999999999986</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.4051428571428577</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.0514428571428578</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.6979857142857142</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.34451428571429</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.99104285714286</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.637499999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.28378571428571</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.929842857142861</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.57615714285714</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.221857142857139</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.86728571428571</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.51242857142857</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.156285714285719</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16.797999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.43542857142857</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18.06342857142857</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.676714285714279</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.267142857142861</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.814</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20.378857142857139</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20.96685714285714</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>21.57442857142857</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>22.186142857142858</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>22.801857142857141</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>23.419142857142859</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24.033857142857141</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>24.645571428571429</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25.254000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25.85942857142857</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>26.450285714285709</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>27.03828571428572</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>27.63485714285714</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>28.217857142857142</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>28.809571428571431</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>29.387</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>29.93928571428571</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>30.37914285714286</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>30.398428571428571</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>29.65914285714285</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>26.93185714285714</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>19.216142857142859</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10.915228571428569</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.4838142857142849</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.8576999999999986</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.7949285714285708</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.1316428571428574</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.5985714285714279</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.0535571428571444</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.6872285714285709</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.3120571428571428</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.0348857142857142</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.822742857142857</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.6153428571428572</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.4486857142857139</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.265828571428572</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.1379428571428569</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.0221142857142862</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.919742857142857</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.840657142857143</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.794</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.7615857142857141</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.734157142857143</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.7145857142857139</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.6914285714285719</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.681728571428571</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.675357142857143</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.646228571428572</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.600714285714286</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.532285714285714</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.4609000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.384465714285714</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.289308571428571</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.2105600000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.1369100000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.067124285714286</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.99632285714285707</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.93010285714285723</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.86631999999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.79653714285714283</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.70084000000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.62379285714285715</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.56203428571428571</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.51724285714285712</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.48724571428571428</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.44302000000000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.41864857142857143</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.38248857142857151</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.36909142857142863</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.35776714285714289</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.34638142857142862</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.32577857142857142</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.31765714285714292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5566,7 +5563,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1B23-3D4E-9D23-318E815ECC29}"/>
+              <c16:uniqueId val="{00000000-48F9-7444-ABC8-DBDBDDA65EFC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6045,7 +6042,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>9_g_g8.0</a:t>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>10%</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6071,12 +6069,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_g_g8.0'!$C$2:$C$105</c:f>
+              <c:f>'9_g_g6.0'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.5000000000000001E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.0000000000000001E-4</c:v>
@@ -6101,612 +6099,42 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2.2499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.7499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.2499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5000000000000009E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.749999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.4999999999999989E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.7499999999999991E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.2499999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9.4999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.7500000000000017E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.025E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.0749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.175E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.225E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.2500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.4749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.525E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.55E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.575E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.6250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.6500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.6750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.7000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.7250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.7500000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.7749999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.8249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.8499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.8749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.925E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.95E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.975E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.0250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.0750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2.1250000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.1499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.1749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.1999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2.2249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2.2499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.4750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2.4875000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2.4931249999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2.4966249999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2.499125E-2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_g_g8.0'!$D$2:$D$105</c:f>
+              <c:f>'9_g_g6.0'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.63443000000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2688585714285709</c:v>
+                  <c:v>1.2930999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.903285714285714</c:v>
+                  <c:v>1.939642857142857</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5377142857142849</c:v>
+                  <c:v>2.5861999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1721428571428572</c:v>
+                  <c:v>3.2327428571428571</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8065714285714281</c:v>
+                  <c:v>3.8793000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4409999999999998</c:v>
+                  <c:v>4.5258428571428579</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0754428571428569</c:v>
+                  <c:v>5.1723999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7098714285714278</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.3442999999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.9787285714285714</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.6131571428571432</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.2475857142857141</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.8820142857142859</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.5164428571428559</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10.150871428571429</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10.785299999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.419228571428571</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12.05292857142857</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12.68702857142857</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>13.321157142857141</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>13.95501428571429</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>14.588428571428571</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>15.220142857142861</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>15.851571428571431</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>16.48085714285714</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>17.106000000000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>17.722857142857141</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>18.32685714285714</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>18.904857142857139</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>19.45271428571429</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>19.996142857142861</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>20.572857142857139</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>21.167571428571431</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>21.76471428571428</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>22.364999999999998</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>22.960428571428569</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>23.562142857142859</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>24.167999999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>24.77542857142857</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>25.37171428571429</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>25.96557142857143</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>26.555285714285709</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>27.139571428571429</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>27.69671428571429</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>28.14414285714286</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>28.164999999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>26.312000000000001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>22.359571428571432</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>17.856285714285711</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>14.087757142857139</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>11.85061428571429</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>10.258714285714291</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>9.0372857142857139</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>8.0812428571428576</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>7.2423999999999999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>6.4446000000000003</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5.8242285714285718</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5.1859428571428579</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>4.590128571428572</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>4.1445142857142852</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>3.6980714285714291</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3.3952714285714292</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3.1076714285714289</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2.8995285714285721</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2.7595142857142858</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2.6128999999999998</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2.4319857142857142</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2.3180428571428568</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2.237514285714286</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2.1397714285714291</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2.0535571428571431</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.962128571428571</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.880314285714286</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.802457142857143</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.7649142857142861</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.7130571428571431</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.676228571428571</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.642557142857143</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.5919285714285709</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1.5111714285714291</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1.4379571428571429</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.368331428571429</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1.314491428571428</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.2706871428571429</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.2426585714285709</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1.222634285714286</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1.211065714285714</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.1998771428571431</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.181231428571428</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1.1659842857142859</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1.1541785714285711</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1.1468042857142859</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1.140225714285714</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.1374299999999999</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1.134757142857143</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1.11836</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1.091561428571429</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1.065085714285714</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1.059122857142857</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1.0507471428571431</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1.005771428571429</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.99580000000000002</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.95712000000000008</c:v>
+                  <c:v>5.8189428571428579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6714,7 +6142,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-41E5-8B45-9DC4-CE6A7B4A90CE}"/>
+              <c16:uniqueId val="{00000000-1B23-3D4E-9D23-318E815ECC29}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6747,6 +6175,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -6780,6 +6209,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -6836,6 +6266,801 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en"/>
+              <a:t>9_g_g8.0</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'9_g_g8.0'!$C$2:$C$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.749999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.4999999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.7499999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.2499999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.4999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.7500000000000017E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.025E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.175E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.225E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.525E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.55E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.575E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7749999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.8749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.925E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.975E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1250000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.4750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4875000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.4931249999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.4966249999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.499125E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'9_g_g8.0'!$D$2:$D$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>0.63443000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2688585714285709</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.903285714285714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5377142857142849</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1721428571428572</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8065714285714281</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0754428571428569</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.7098714285714278</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3442999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.9787285714285714</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.6131571428571432</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.2475857142857141</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.8820142857142859</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.5164428571428559</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.150871428571429</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.785299999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.419228571428571</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.05292857142857</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.68702857142857</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.321157142857141</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.95501428571429</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.588428571428571</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.220142857142861</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.851571428571431</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16.48085714285714</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.106000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.722857142857141</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.32685714285714</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18.904857142857139</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.45271428571429</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.996142857142861</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20.572857142857139</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>21.167571428571431</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21.76471428571428</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>22.364999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>22.960428571428569</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>23.562142857142859</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>24.167999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>24.77542857142857</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25.37171428571429</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>25.96557142857143</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>26.555285714285709</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>27.139571428571429</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27.69671428571429</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>28.14414285714286</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>28.164999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26.312000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>22.359571428571432</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17.856285714285711</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14.087757142857139</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11.85061428571429</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10.258714285714291</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.0372857142857139</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.0812428571428576</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.2423999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.4446000000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.8242285714285718</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.1859428571428579</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.590128571428572</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.1445142857142852</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.6980714285714291</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.3952714285714292</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.1076714285714289</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.8995285714285721</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.7595142857142858</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.6128999999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.4319857142857142</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.3180428571428568</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.237514285714286</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.1397714285714291</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.0535571428571431</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.962128571428571</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.880314285714286</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.802457142857143</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.7649142857142861</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.7130571428571431</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.676228571428571</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.642557142857143</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.5919285714285709</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.5111714285714291</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.4379571428571429</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.368331428571429</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.314491428571428</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.2706871428571429</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.2426585714285709</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.222634285714286</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.211065714285714</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.1998771428571431</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.181231428571428</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.1659842857142859</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.1541785714285711</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.1468042857142859</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.140225714285714</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.1374299999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.134757142857143</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.11836</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.091561428571429</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.065085714285714</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.059122857142857</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.0507471428571431</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.005771428571429</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.99580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.95712000000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-41E5-8B45-9DC4-CE6A7B4A90CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="10"/>
+        <c:axId val="20"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en"/>
+                  <a:t>Strain [-]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="20"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="20"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en"/>
+                  <a:t>Stress [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
               <a:t>10%</a:t>
             </a:r>
           </a:p>
@@ -6968,6 +7193,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -7001,6 +7227,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -10517,7 +10744,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>9_g_g1.5</a:t>
+              <a:rPr lang="en"/>
+              <a:t>9_g_g1.0</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -10531,7 +10759,7 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:spPr>
             <a:ln>
@@ -10543,10 +10771,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_g_g1.5'!$C$2:$C$101</c:f>
+              <c:f>'9_g_g8.0'!$C$2:$C$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
@@ -10845,6 +11073,18 @@
                   <c:v>2.4750000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>2.4875000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.4931249999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.4966249999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.499125E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -10852,309 +11092,321 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_g_g1.5'!$D$2:$D$101</c:f>
+              <c:f>'9_g_g8.0'!$D$2:$D$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
-                  <c:v>0.67566142857142863</c:v>
+                  <c:v>0.63443000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.351321428571429</c:v>
+                  <c:v>1.2688585714285709</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0269857142857139</c:v>
+                  <c:v>1.903285714285714</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7026428571428571</c:v>
+                  <c:v>2.5377142857142849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3782999999999999</c:v>
+                  <c:v>3.1721428571428572</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0539714285714288</c:v>
+                  <c:v>3.8065714285714281</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.729628571428572</c:v>
+                  <c:v>4.4409999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.4052857142857142</c:v>
+                  <c:v>5.0754428571428569</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0809428571428574</c:v>
+                  <c:v>5.7098714285714278</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.7566142857142859</c:v>
+                  <c:v>6.3442999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.4322714285714291</c:v>
+                  <c:v>6.9787285714285714</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.1079285714285714</c:v>
+                  <c:v>7.6131571428571432</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.7835857142857137</c:v>
+                  <c:v>8.2475857142857141</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.4592571428571439</c:v>
+                  <c:v>8.8820142857142859</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.134914285714281</c:v>
+                  <c:v>9.5164428571428559</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.810471428571431</c:v>
+                  <c:v>10.150871428571429</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.486000000000001</c:v>
+                  <c:v>10.785299999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.16164285714286</c:v>
+                  <c:v>11.419228571428571</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.837285714285709</c:v>
+                  <c:v>12.05292857142857</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.51252857142857</c:v>
+                  <c:v>12.68702857142857</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14.18772857142857</c:v>
+                  <c:v>13.321157142857141</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>14.863</c:v>
+                  <c:v>13.95501428571429</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15.537714285714291</c:v>
+                  <c:v>14.588428571428571</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>16.21028571428571</c:v>
+                  <c:v>15.220142857142861</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>16.883428571428571</c:v>
+                  <c:v>15.851571428571431</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17.554714285714279</c:v>
+                  <c:v>16.48085714285714</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>18.22428571428571</c:v>
+                  <c:v>17.106000000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>18.887</c:v>
+                  <c:v>17.722857142857141</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>19.541142857142859</c:v>
+                  <c:v>18.32685714285714</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20.183285714285709</c:v>
+                  <c:v>18.904857142857139</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>20.79214285714286</c:v>
+                  <c:v>19.45271428571429</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>21.369714285714291</c:v>
+                  <c:v>19.996142857142861</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>21.97342857142857</c:v>
+                  <c:v>20.572857142857139</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>22.611714285714289</c:v>
+                  <c:v>21.167571428571431</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>23.25628571428571</c:v>
+                  <c:v>21.76471428571428</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>23.897571428571428</c:v>
+                  <c:v>22.364999999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>24.53885714285714</c:v>
+                  <c:v>22.960428571428569</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>25.17642857142857</c:v>
+                  <c:v>23.562142857142859</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>25.812428571428569</c:v>
+                  <c:v>24.167999999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>26.451142857142859</c:v>
+                  <c:v>24.77542857142857</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>27.088571428571431</c:v>
+                  <c:v>25.37171428571429</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>27.728000000000002</c:v>
+                  <c:v>25.96557142857143</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>28.35314285714286</c:v>
+                  <c:v>26.555285714285709</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>28.984000000000002</c:v>
+                  <c:v>27.139571428571429</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>29.613428571428571</c:v>
+                  <c:v>27.69671428571429</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>30.244428571428571</c:v>
+                  <c:v>28.14414285714286</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>30.876857142857141</c:v>
+                  <c:v>28.164999999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>31.514142857142851</c:v>
+                  <c:v>26.312000000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>32.141285714285708</c:v>
+                  <c:v>22.359571428571432</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>32.748571428571431</c:v>
+                  <c:v>17.856285714285711</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>33.270714285714277</c:v>
+                  <c:v>14.087757142857139</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>33.687285714285707</c:v>
+                  <c:v>11.85061428571429</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>33.787285714285723</c:v>
+                  <c:v>10.258714285714291</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>33.438714285714283</c:v>
+                  <c:v>9.0372857142857139</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>32.713999999999999</c:v>
+                  <c:v>8.0812428571428576</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>31.548285714285711</c:v>
+                  <c:v>7.2423999999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>29.370714285714278</c:v>
+                  <c:v>6.4446000000000003</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>25.766285714285711</c:v>
+                  <c:v>5.8242285714285718</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>21.387142857142859</c:v>
+                  <c:v>5.1859428571428579</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>16.523857142857139</c:v>
+                  <c:v>4.590128571428572</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8.6353714285714283</c:v>
+                  <c:v>4.1445142857142852</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.4560714285714287</c:v>
+                  <c:v>3.6980714285714291</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.732071428571428</c:v>
+                  <c:v>3.3952714285714292</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.0352857142857141</c:v>
+                  <c:v>3.1076714285714289</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.8351285714285721</c:v>
+                  <c:v>2.8995285714285721</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.738</c:v>
+                  <c:v>2.7595142857142858</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.670371428571428</c:v>
+                  <c:v>2.6128999999999998</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.5682142857142858</c:v>
+                  <c:v>2.4319857142857142</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.4955857142857139</c:v>
+                  <c:v>2.3180428571428568</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.4123714285714288</c:v>
+                  <c:v>2.237514285714286</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.3443428571428568</c:v>
+                  <c:v>2.1397714285714291</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.266628571428571</c:v>
+                  <c:v>2.0535571428571431</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.210371428571428</c:v>
+                  <c:v>1.962128571428571</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.142557142857143</c:v>
+                  <c:v>1.880314285714286</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.0917428571428571</c:v>
+                  <c:v>1.802457142857143</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.0758142857142849</c:v>
+                  <c:v>1.7649142857142861</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.0378857142857139</c:v>
+                  <c:v>1.7130571428571431</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.0044714285714278</c:v>
+                  <c:v>1.676228571428571</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.931771428571428</c:v>
+                  <c:v>1.642557142857143</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.854114285714286</c:v>
+                  <c:v>1.5919285714285709</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.739428571428572</c:v>
+                  <c:v>1.5111714285714291</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.4984</c:v>
+                  <c:v>1.4379571428571429</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.46698714285714288</c:v>
+                  <c:v>1.368331428571429</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.14561571428571429</c:v>
+                  <c:v>1.314491428571428</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.138074</c:v>
+                  <c:v>1.2706871428571429</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.1352737142857143</c:v>
+                  <c:v>1.2426585714285709</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.13547857142857139</c:v>
+                  <c:v>1.222634285714286</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.13663128571428571</c:v>
+                  <c:v>1.211065714285714</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.13757628571428571</c:v>
+                  <c:v>1.1998771428571431</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.1369721428571429</c:v>
+                  <c:v>1.181231428571428</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.13849414285714279</c:v>
+                  <c:v>1.1659842857142859</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.1398274285714286</c:v>
+                  <c:v>1.1541785714285711</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.13990900000000001</c:v>
+                  <c:v>1.1468042857142859</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.1387427142857143</c:v>
+                  <c:v>1.140225714285714</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.13907871428571431</c:v>
+                  <c:v>1.1374299999999999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.13904628571428571</c:v>
+                  <c:v>1.134757142857143</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.1398521428571429</c:v>
+                  <c:v>1.11836</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.14127271428571431</c:v>
+                  <c:v>1.091561428571429</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.14117714285714289</c:v>
+                  <c:v>1.065085714285714</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.14258742857142859</c:v>
+                  <c:v>1.059122857142857</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.0507471428571431</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.005771428571429</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.99580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.95712000000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11162,7 +11414,667 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0C2B-934C-A8BE-34F59DECC090}"/>
+              <c16:uniqueId val="{00000004-8FEC-8A46-BFD6-9E519E711756}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'9_g_g1.0'!$C$2:$C$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.749999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.4999999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.7499999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.2499999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.4999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.7500000000000017E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.025E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.175E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.225E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.525E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.55E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.575E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7749999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.8749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.925E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.975E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1250000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.4750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4875000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.4937500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.4962499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.498125E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'9_g_g1.0'!$D$2:$D$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3616428571428569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0424571428571432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7232857142857139</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4041000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0849285714285717</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7657428571428566</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4465714285714286</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1273857142857144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8082142857142864</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.4890285714285714</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.1698571428571434</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.8506714285714292</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.5315000000000012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.212314285714291</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.893142857142861</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.57395714285714</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.2545</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.93487142857143</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.61528571428572</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.29542857142857</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.97442857142857</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.653142857142861</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.33071428571429</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.007000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.679714285714279</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18.347999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19.004857142857141</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.64828571428572</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20.273428571428571</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20.90585714285714</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21.53257142857143</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22.138999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22.779142857142858</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23.425142857142859</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24.070285714285721</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24.717571428571429</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25.36542857142857</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>26.013000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26.66357142857143</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>27.312142857142859</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27.95814285714286</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>28.599142857142859</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>29.24342857142857</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>29.893000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>30.540285714285719</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>31.184999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>31.829142857142859</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>32.466285714285711</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>33.108714285714292</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>33.726285714285723</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>34.273285714285713</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>34.726999999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>34.941571428571429</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>34.908428571428573</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>34.551142857142857</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>33.861714285714292</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>32.586285714285722</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29.460714285714289</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>24.737285714285711</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15.62757142857143</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.2256714285714292</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.4344999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.0487571428571432</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.3375428571428571</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.8121142857142858</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.361528571428571</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.1723571428571429</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.030985714285714</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.8978285714285721</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.746585714285714</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.5734571428571431</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.2638557142857141</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.157992857142857</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.0870171428571429</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.99519714285714278</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.90527714285714289</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.84809000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.79677142857142857</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.75549428571428567</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.73273857142857146</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.70210714285714282</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.68364142857142862</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.66199857142857144</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.64025999999999994</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.61717857142857147</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.59474714285714292</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.58576857142857142</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.56785285714285705</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.55651714285714293</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.55040428571428579</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.53761999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.52343714285714282</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.51607142857142863</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.50963714285714279</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.50811714285714282</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.5022428571428571</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.49661285714285719</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.49829857142857142</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.49814142857142862</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.49597857142857138</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.49336714285714278</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.48998000000000003</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.48570714285714278</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8FEC-8A46-BFD6-9E519E711756}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11195,6 +12107,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -11228,6 +12141,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -11284,7 +12198,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>10%</a:t>
+              <a:t>9_g_g1.5</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -11310,10 +12224,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_g_g1.5'!$C$2:$C$9</c:f>
+              <c:f>'9_g_g1.5'!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
@@ -11337,16 +12251,292 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.749999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.4999999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.7499999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.2499999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.4999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.7500000000000017E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.025E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.175E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.225E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.525E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.55E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.575E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7749999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.8749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.925E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.975E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1250000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.4750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_g_g1.5'!$D$2:$D$9</c:f>
+              <c:f>'9_g_g1.5'!$D$2:$D$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0.67566142857142863</c:v>
                 </c:pt>
@@ -11370,6 +12560,282 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5.4052857142857142</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0809428571428574</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7566142857142859</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.4322714285714291</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.1079285714285714</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.7835857142857137</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.4592571428571439</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.134914285714281</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.810471428571431</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.486000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.16164285714286</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.837285714285709</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.51252857142857</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.18772857142857</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.863</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.537714285714291</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.21028571428571</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.883428571428571</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.554714285714279</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18.22428571428571</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18.887</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.541142857142859</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20.183285714285709</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20.79214285714286</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21.369714285714291</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21.97342857142857</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22.611714285714289</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23.25628571428571</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23.897571428571428</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24.53885714285714</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25.17642857142857</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25.812428571428569</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26.451142857142859</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>27.088571428571431</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27.728000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>28.35314285714286</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>28.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>29.613428571428571</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>30.244428571428571</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>30.876857142857141</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>31.514142857142851</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>32.141285714285708</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>32.748571428571431</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>33.270714285714277</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>33.687285714285707</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>33.787285714285723</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>33.438714285714283</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>32.713999999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>31.548285714285711</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>29.370714285714278</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>25.766285714285711</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>21.387142857142859</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>16.523857142857139</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.6353714285714283</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.4560714285714287</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.732071428571428</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.0352857142857141</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.8351285714285721</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.738</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.670371428571428</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.5682142857142858</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.4955857142857139</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.4123714285714288</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.3443428571428568</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.266628571428571</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.210371428571428</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.142557142857143</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.0917428571428571</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.0758142857142849</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.0378857142857139</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.0044714285714278</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.931771428571428</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.854114285714286</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.739428571428572</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.4984</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.46698714285714288</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.14561571428571429</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.138074</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.1352737142857143</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.13547857142857139</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.13663128571428571</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.13757628571428571</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.1369721428571429</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.13849414285714279</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.1398274285714286</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.13990900000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.1387427142857143</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.13907871428571431</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.13904628571428571</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.1398521428571429</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.14127271428571431</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.14117714285714289</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.14258742857142859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11377,7 +12843,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8A8A-A84D-B60B-237F80A021D3}"/>
+              <c16:uniqueId val="{00000000-0C2B-934C-A8BE-34F59DECC090}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12895,6 +14361,39 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9098790-331E-3E4D-B7EF-12FFCF78E1FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13600,7 +15099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -18209,8 +19708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>

--- a/9/gap/9_gap_SS.xlsx
+++ b/9/gap/9_gap_SS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management-3dPrinter/9/gap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB916D9B-AF15-314A-8E28-9B7986263EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F63E5F9-9878-9740-8E38-95F51F90794A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="27">
   <si>
     <t>sheet_name</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>9_g_g6.0</t>
-  </si>
-  <si>
-    <t>9_g_g8.0</t>
   </si>
   <si>
     <t>TIME</t>
@@ -132,9 +129,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0"/>
-  </numFmts>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -214,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -223,11 +217,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -335,10 +327,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>まとめ!$B$2:$B$10</c:f>
+              <c:f>まとめ!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -355,15 +347,12 @@
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -371,36 +360,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>まとめ!$C$2:$C$10</c:f>
+              <c:f>まとめ!$C$2:$C$9</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>37.564857142857143</c:v>
+                  <c:v>36.869142857142862</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.9415714285714</c:v>
+                  <c:v>34.503571428571433</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.787285714285723</c:v>
+                  <c:v>33.593857142857154</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.716428571428573</c:v>
+                  <c:v>32.564857142857143</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.195142857142862</c:v>
+                  <c:v>31.942714285714281</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.595142857142847</c:v>
+                  <c:v>30.271999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.78257142857143</c:v>
+                  <c:v>28.494285714285709</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.398428571428571</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28.164999999999999</c:v>
+                  <c:v>26.84714285714286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -507,7 +493,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5753,10 +5739,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>まとめ!$B$2:$B$10</c:f>
+              <c:f>まとめ!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -5773,15 +5759,12 @@
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -5789,36 +5772,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>まとめ!$D$2:$D$10</c:f>
+              <c:f>まとめ!$D$2:$D$9</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.7534399999999999</c:v>
+                  <c:v>2.752817004329005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.723285021645022</c:v>
+                  <c:v>2.7226482857142851</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7026421904761908</c:v>
+                  <c:v>2.7019997142857139</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.686203255411256</c:v>
+                  <c:v>2.6855490909090909</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.67178264935065</c:v>
+                  <c:v>2.6711338181818176</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6585716709956708</c:v>
+                  <c:v>2.6332683636363639</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.633913835497836</c:v>
+                  <c:v>2.5855192727272729</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5861993073593079</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.537721004329005</c:v>
+                  <c:v>2.5369327792207801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5925,7 +5905,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -14059,13 +14039,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14094,15 +14074,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15107,19 +15087,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -15136,7 +15116,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>30.398428571428571</v>
@@ -15156,7 +15136,7 @@
         <v>1.2930999999999999</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>2586.199307359308</v>
@@ -16607,19 +16587,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -16636,7 +16616,7 @@
         <v>0.63443000000000005</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>28.164999999999999</v>
@@ -16656,7 +16636,7 @@
         <v>1.2688585714285709</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>2537.7210043290052</v>
@@ -18099,10 +18079,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -18113,12 +18093,12 @@
     <col min="4" max="4" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>27</v>
+      <c r="B1" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -18127,130 +18107,148 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3">
         <v>0.5</v>
       </c>
-      <c r="C2" s="4">
-        <v>37.564857142857143</v>
-      </c>
-      <c r="D2" s="6">
-        <v>2.7534399999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="C2">
+        <v>36.869142857142862</v>
+      </c>
+      <c r="D2">
+        <v>2.752817004329005</v>
+      </c>
+      <c r="E2">
+        <f>D2/1000</f>
+        <v>2.7528170043290049E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
-        <v>34.9415714285714</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2.723285021645022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="C3">
+        <v>34.503571428571433</v>
+      </c>
+      <c r="D3">
+        <v>2.7226482857142851</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="D3:E9" si="0">D3/1000</f>
+        <v>2.722648285714285E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>1.5</v>
       </c>
-      <c r="C4" s="4">
-        <v>33.787285714285723</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2.7026421904761908</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="C4">
+        <v>33.593857142857154</v>
+      </c>
+      <c r="D4">
+        <v>2.7019997142857139</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2.701999714285714E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="4">
-        <v>32.716428571428573</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2.686203255411256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="C5">
+        <v>32.564857142857143</v>
+      </c>
+      <c r="D5">
+        <v>2.6855490909090909</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>2.6855490909090908E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3">
         <v>2.5</v>
       </c>
-      <c r="C6" s="4">
-        <v>32.195142857142862</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2.67178264935065</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="C6">
+        <v>31.942714285714281</v>
+      </c>
+      <c r="D6">
+        <v>2.6711338181818176</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2.6711338181818175E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4">
-        <v>32.595142857142847</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2.6585716709956708</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>30.271999999999998</v>
+      </c>
+      <c r="D7">
+        <v>2.6332683636363639</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>2.6332683636363639E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4">
-        <v>30.78257142857143</v>
-      </c>
-      <c r="D8" s="6">
-        <v>2.633913835497836</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>28.494285714285709</v>
+      </c>
+      <c r="D8">
+        <v>2.5855192727272729</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>2.5855192727272727E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="3">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4">
-        <v>30.398428571428571</v>
-      </c>
-      <c r="D9" s="6">
-        <v>2.5861993073593079</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
-        <v>28.164999999999999</v>
-      </c>
-      <c r="D10" s="6">
-        <v>2.537721004329005</v>
+      <c r="C9">
+        <v>26.84714285714286</v>
+      </c>
+      <c r="D9">
+        <v>2.5369327792207801</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>2.5369327792207799E-3</v>
       </c>
     </row>
   </sheetData>
@@ -18270,19 +18268,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -18299,7 +18297,7 @@
         <v>0.68835999999999997</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>37.564857142857143</v>
@@ -18319,7 +18317,7 @@
         <v>1.3767199999999999</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>2753.44</v>
@@ -19708,7 +19706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
@@ -19716,19 +19714,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -19745,7 +19743,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>34.941571428571429</v>
@@ -19765,7 +19763,7 @@
         <v>1.3616428571428569</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>2723.285021645022</v>
@@ -21216,19 +21214,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -21245,7 +21243,7 @@
         <v>0.67566142857142863</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>33.787285714285723</v>
@@ -21265,7 +21263,7 @@
         <v>1.351321428571429</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>2702.642190476191</v>
@@ -22660,19 +22658,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -22689,7 +22687,7 @@
         <v>0.67155142857142858</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>32.716428571428573</v>
@@ -22709,7 +22707,7 @@
         <v>1.3431014285714289</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>2686.2032554112561</v>
@@ -24160,19 +24158,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -24189,7 +24187,7 @@
         <v>0.66794571428571425</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>32.195142857142862</v>
@@ -24209,7 +24207,7 @@
         <v>1.335891428571429</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>2671.78264935065</v>
@@ -25660,19 +25658,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -25689,7 +25687,7 @@
         <v>0.66464285714285709</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>32.595142857142847</v>
@@ -25709,7 +25707,7 @@
         <v>1.3292842857142859</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>2658.571670995671</v>
@@ -27160,19 +27158,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -27189,7 +27187,7 @@
         <v>0.65847857142857136</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>30.78257142857143</v>
@@ -27209,7 +27207,7 @@
         <v>1.316955714285714</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>2633.9138354978359</v>
